--- a/data_xlsx/收盘价_沪金指数.xlsx
+++ b/data_xlsx/收盘价_沪金指数.xlsx
@@ -30306,8 +30306,200 @@
         <v>459.7051</v>
       </c>
     </row>
+    <row r="3779">
+      <c r="A3779" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3779" s="2" t="n">
+        <v>459.4637</v>
+      </c>
+    </row>
     <row r="3780">
-      <c r="A3780" s="3" t="inlineStr">
+      <c r="A3780" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3780" s="2" t="n">
+        <v>457.2451</v>
+      </c>
+    </row>
+    <row r="3781">
+      <c r="A3781" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3781" s="2" t="n">
+        <v>459.0785</v>
+      </c>
+    </row>
+    <row r="3782">
+      <c r="A3782" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3782" s="2" t="n">
+        <v>460.2187</v>
+      </c>
+    </row>
+    <row r="3783">
+      <c r="A3783" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3783" s="2" t="n">
+        <v>456.7451</v>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3784" s="2" t="n">
+        <v>456.4558</v>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3785" s="2" t="n">
+        <v>458.0862</v>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3786" s="2" t="n">
+        <v>457.6483</v>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3787" s="2" t="n">
+        <v>455.5558</v>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3788" s="2" t="n">
+        <v>454.9008</v>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3789" s="2" t="n">
+        <v>456.1655</v>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3790" s="2" t="n">
+        <v>456.1655</v>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3791" s="2" t="n">
+        <v>455.8695</v>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3792" s="2" t="n">
+        <v>454.1375</v>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3793" s="2" t="n">
+        <v>455.9846</v>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3794" s="2" t="n">
+        <v>456.1744</v>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3795" s="2" t="n">
+        <v>456.2449</v>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3796" s="2" t="n">
+        <v>457.4053</v>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3797" s="2" t="n">
+        <v>457.1401</v>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3798" s="2" t="n">
+        <v>455.4272</v>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3799" s="2" t="n">
+        <v>457.3226</v>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3800" s="2" t="n">
+        <v>456.8008</v>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3801" s="2" t="n">
+        <v>458.2156</v>
+      </c>
+    </row>
+    <row r="3802">
+      <c r="A3802" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3802" s="2" t="n">
+        <v>460.2835</v>
+      </c>
+    </row>
+    <row r="3804">
+      <c r="A3804" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
